--- a/uploads/Personel.xlsx
+++ b/uploads/Personel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\090\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F8DFDC-A498-4519-993C-E0D4AAB9E68E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448A24FC-BA6E-41B4-9379-1B6C96B19EFC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4320" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="100">
   <si>
     <t>Nama</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Jenis Kelamin (Pria / Wanita)</t>
   </si>
   <si>
+    <t>Tanggal Lahir (Tahun-Bulan-Hari)</t>
+  </si>
+  <si>
     <t>Kesatuan</t>
   </si>
   <si>
@@ -46,38 +49,288 @@
     <t>Matra</t>
   </si>
   <si>
-    <t>Pria</t>
-  </si>
-  <si>
-    <t>Ferianto</t>
-  </si>
-  <si>
-    <t>Sertu</t>
-  </si>
-  <si>
-    <t>PDK</t>
-  </si>
-  <si>
-    <t>Pushidrosal</t>
-  </si>
-  <si>
-    <t>Baur Peta</t>
-  </si>
-  <si>
-    <t>TNI AL</t>
-  </si>
-  <si>
-    <t>Tgl Lahir (tahun-bulan-tgl)</t>
+    <t>Kotama</t>
+  </si>
+  <si>
+    <t>Dra. Wariyani, M.M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syaiful Azhar, S.E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Hanafia  </t>
+  </si>
+  <si>
+    <t>Hero Eka Watani, S.E.</t>
+  </si>
+  <si>
+    <t>Heru Mudjianto, S.Sos</t>
+  </si>
+  <si>
+    <t>M. Haikal Ansar, MS,S,M.</t>
+  </si>
+  <si>
+    <t>Martin Luther,S.E., M.M.</t>
+  </si>
+  <si>
+    <t>Drs. E Bambang Widoyoko</t>
+  </si>
+  <si>
+    <t>Asep Hendi Permana</t>
+  </si>
+  <si>
+    <t>Dinurwan, SH.</t>
+  </si>
+  <si>
+    <t>John Rizal</t>
+  </si>
+  <si>
+    <t>Tony Suherman, S.Sos</t>
+  </si>
+  <si>
+    <t>Slamet Heryanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Said Anggi Patama Tanjung         </t>
+  </si>
+  <si>
+    <t>Alfin Fachrurozi, S.S.T.Han</t>
+  </si>
+  <si>
+    <t>Medi Sutapa</t>
+  </si>
+  <si>
+    <t>Lukman Iskandar, S.E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rusmiati </t>
+  </si>
+  <si>
+    <t>Heru Purwanto S.E</t>
+  </si>
+  <si>
+    <t>Nurdiman Dhae</t>
+  </si>
+  <si>
+    <t>Agus Haryanta</t>
+  </si>
+  <si>
+    <t>Riri Setiawan,S.E</t>
+  </si>
+  <si>
+    <t>Sri Utami</t>
+  </si>
+  <si>
+    <t>Didik Gunawan</t>
+  </si>
+  <si>
+    <t>Subari</t>
+  </si>
+  <si>
+    <t>Bambang Wahyudi, A.Md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor Hans Letto </t>
+  </si>
+  <si>
+    <t>Heru Mudjianto,  S.Sos., M.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sutadi </t>
+  </si>
+  <si>
+    <t>Sonni Denni Sumolang</t>
+  </si>
+  <si>
+    <t>Manahara Sondang Zulkifli Manurung S.E., M.Sc</t>
+  </si>
+  <si>
+    <t>Pricilia Nanik Yanuwati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ismono Rudi W, S.E,S.H. </t>
+  </si>
+  <si>
+    <t>Jonny Ismir Fr.</t>
+  </si>
+  <si>
+    <t>Jhon Berry M Sitompul, S.E.</t>
+  </si>
+  <si>
+    <t>Asrul Kudhy, S.M</t>
+  </si>
+  <si>
+    <t>Irwansyah, S.E., M.M.</t>
+  </si>
+  <si>
+    <t>Drs. Ec. Gatot Soepeno</t>
+  </si>
+  <si>
+    <t>Sukowiyono</t>
+  </si>
+  <si>
+    <t>Karmila, S.E.</t>
+  </si>
+  <si>
+    <t>Setiyawan</t>
+  </si>
+  <si>
+    <t>Sugiarto</t>
+  </si>
+  <si>
+    <t>Drs. Eko Pujiarto, MBA</t>
+  </si>
+  <si>
+    <t>Sigit Julianto S.E.</t>
+  </si>
+  <si>
+    <t>Hengky Puji D</t>
+  </si>
+  <si>
+    <t>Boy Edy Putra</t>
+  </si>
+  <si>
+    <t>Paulina Nurita RS, S.E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laksono Yudho Irianto </t>
+  </si>
+  <si>
+    <t>Deri Firmansyah, S.E.</t>
+  </si>
+  <si>
+    <t>M. Fauzi, S.E</t>
+  </si>
+  <si>
+    <t>WANITA</t>
+  </si>
+  <si>
+    <t>PRIA</t>
+  </si>
+  <si>
+    <t>CKU</t>
+  </si>
+  <si>
+    <t>Lettu</t>
+  </si>
+  <si>
+    <t>Kapten</t>
+  </si>
+  <si>
+    <t>Serma</t>
+  </si>
+  <si>
+    <t>Kopda</t>
+  </si>
+  <si>
+    <t>CAJ</t>
+  </si>
+  <si>
+    <t>INF</t>
+  </si>
+  <si>
+    <t>CZI</t>
+  </si>
+  <si>
+    <t>CPM</t>
+  </si>
+  <si>
+    <t>BRIGIF MEKANIS I</t>
+  </si>
+  <si>
+    <t>DENMA DAM JAYA</t>
+  </si>
+  <si>
+    <t>DENRUDAL 03</t>
+  </si>
+  <si>
+    <t>DENZIPUR 3</t>
+  </si>
+  <si>
+    <t>BEKANGDAM JAYA</t>
+  </si>
+  <si>
+    <t>PALDAM JAYA</t>
+  </si>
+  <si>
+    <t>KUMDAM JAYA</t>
+  </si>
+  <si>
+    <t>KESDAM JAYA</t>
+  </si>
+  <si>
+    <t>KUDAM JAYA</t>
+  </si>
+  <si>
+    <t>BINTALDAM JAYA</t>
+  </si>
+  <si>
+    <t>JASDAM JAYA</t>
+  </si>
+  <si>
+    <t>HUBDAM JAYA</t>
+  </si>
+  <si>
+    <t>CHB</t>
+  </si>
+  <si>
+    <t>POMDAM JAYA</t>
+  </si>
+  <si>
+    <t>AJENDAM JAYA</t>
+  </si>
+  <si>
+    <t>RESIMEN ARHANUD</t>
+  </si>
+  <si>
+    <t>TOPDAM JAYA</t>
+  </si>
+  <si>
+    <t>INFOLAHTADAM JAYA</t>
+  </si>
+  <si>
+    <t>SANDIDAM JAYA</t>
+  </si>
+  <si>
+    <t>DENINTELDAM JAYA</t>
+  </si>
+  <si>
+    <t>YON ARHANUD 6</t>
+  </si>
+  <si>
+    <t>YON ARHANUD 10</t>
+  </si>
+  <si>
+    <t>DEN ARHANUD 3</t>
+  </si>
+  <si>
+    <t>PAMA KODAM</t>
+  </si>
+  <si>
+    <t>KASET</t>
+  </si>
+  <si>
+    <t>BA KODAM</t>
+  </si>
+  <si>
+    <t>TA KODAM</t>
+  </si>
+  <si>
+    <t>Kodam Jaya</t>
+  </si>
+  <si>
+    <t>TNI AD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -89,6 +342,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,12 +403,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -458,14 +749,14 @@
     <col min="2" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="1016" width="11.5703125"/>
+    <col min="8" max="9" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" customWidth="1"/>
+    <col min="11" max="1017" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,46 +772,1620 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1910010150166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2">
+        <v>32387</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1910012130262</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2">
+        <v>32388</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="9">
+        <v>11950064060273</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="2">
+        <v>32389</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="9">
+        <v>32918</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2">
+        <v>32420</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="9">
+        <v>31810</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2">
+        <v>32391</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>116789</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2">
-        <v>33165</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="9">
+        <v>33287</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2">
+        <v>32392</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1910015100963</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="2">
+        <v>32393</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="10">
+        <v>33754</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2">
+        <v>32455</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="11">
+        <v>33376</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2">
+        <v>32517</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="9">
+        <v>31806</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="2">
+        <v>32579</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="9">
+        <v>11950004581168</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2">
+        <v>32641</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="10">
+        <v>31804</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2">
+        <v>32703</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="10">
+        <v>31358</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="2">
+        <v>32765</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="12">
+        <v>11070084661285</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="2">
+        <v>30506</v>
+      </c>
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="9">
+        <v>11120027931189</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="2">
+        <v>30517</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="11">
+        <v>21980126561076</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2">
+        <v>30528</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="9">
+        <v>11070049370582</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="2">
+        <v>30539</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="10">
+        <v>548621</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="2">
+        <v>30550</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="11">
+        <v>11960046321174</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="2">
+        <v>30561</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="10">
+        <v>21960370850275</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="2">
+        <v>30572</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="11">
+        <v>21930126930871</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="2">
+        <v>30583</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="11">
+        <v>11090003211282</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="2">
+        <v>30594</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="9">
+        <v>21950329210573</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="2">
+        <v>30605</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="9">
+        <v>2920123661071</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="2">
+        <v>30616</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2910045540668</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="2">
+        <v>30627</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="9">
+        <v>11970023530772</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="2">
+        <v>30638</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2920123901171</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="2">
+        <v>30649</v>
+      </c>
+      <c r="G28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="5">
+        <v>31810</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="2">
+        <v>30660</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="5">
+        <v>575894</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="2">
+        <v>30671</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="10">
+        <v>11950064480674</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="2">
+        <v>30682</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="9">
+        <v>11970017280171</v>
+      </c>
+      <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="2">
+        <v>29963</v>
+      </c>
+      <c r="G32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="5">
+        <v>590766</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="2">
+        <v>29974</v>
+      </c>
+      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="9">
+        <v>11010014181274</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="2">
+        <v>29985</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="9">
+        <v>33875</v>
+      </c>
+      <c r="E35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="2">
+        <v>29996</v>
+      </c>
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1910000820561</v>
+      </c>
+      <c r="E36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="2">
+        <v>30007</v>
+      </c>
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="9">
+        <v>33649</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="2">
+        <v>30018</v>
+      </c>
+      <c r="G37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" t="s">
+        <v>98</v>
+      </c>
+      <c r="J37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="9">
+        <v>34104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="2">
+        <v>30029</v>
+      </c>
+      <c r="G38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="9">
+        <v>33749</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="2">
+        <v>30040</v>
+      </c>
+      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1910022780764</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="2">
+        <v>30051</v>
+      </c>
+      <c r="G40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2910137380671</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="2">
+        <v>30062</v>
+      </c>
+      <c r="G41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="9">
+        <v>21040180520384</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="2">
+        <v>30073</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="9">
+        <v>31970568840776</v>
+      </c>
+      <c r="E43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="2">
+        <v>30084</v>
+      </c>
+      <c r="G43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1910013200862</v>
+      </c>
+      <c r="E44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="2">
+        <v>30095</v>
+      </c>
+      <c r="G44" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="9">
+        <v>11990005870771</v>
+      </c>
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="2">
+        <v>30106</v>
+      </c>
+      <c r="G45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="9">
+        <v>11980072371274</v>
+      </c>
+      <c r="E46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="2">
+        <v>30117</v>
+      </c>
+      <c r="G46" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" t="s">
+        <v>98</v>
+      </c>
+      <c r="J46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="9">
+        <v>21970265330276</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="2">
+        <v>30128</v>
+      </c>
+      <c r="G47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" t="s">
+        <v>98</v>
+      </c>
+      <c r="J47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="9">
+        <v>11980035820571</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="2">
+        <v>30139</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48" t="s">
+        <v>98</v>
+      </c>
+      <c r="J48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="9">
+        <v>548967</v>
+      </c>
+      <c r="E49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="2">
+        <v>31096</v>
+      </c>
+      <c r="G49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" t="s">
+        <v>98</v>
+      </c>
+      <c r="J49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="9">
+        <v>11970026501273</v>
+      </c>
+      <c r="E50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="2">
+        <v>31155</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="9">
+        <v>11980073020277</v>
+      </c>
+      <c r="E51" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="2">
+        <v>31216</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51" t="s">
+        <v>98</v>
+      </c>
+      <c r="J51" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
